--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,34 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355A668-F8D9-4795-A4D9-0A08C75B93FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED0ABF-2083-4316-9F5E-92483D49B924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="17265" windowHeight="31800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17265" yWindow="0" windowWidth="23220" windowHeight="31800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables_MD" sheetId="1" r:id="rId1"/>
-    <sheet name="Codelists_2MD" sheetId="3" r:id="rId2"/>
-    <sheet name="General_MD" sheetId="4" r:id="rId3"/>
-    <sheet name="Format_MD" sheetId="5" r:id="rId4"/>
+    <sheet name="General" sheetId="4" r:id="rId1"/>
+    <sheet name="Variables" sheetId="1" r:id="rId2"/>
+    <sheet name="Codelists" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
-  <si>
-    <t>VarName</t>
-  </si>
-  <si>
-    <t>da_varName</t>
-  </si>
-  <si>
-    <t>en_varName</t>
-  </si>
-  <si>
-    <t>kl_varName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -82,15 +69,6 @@
     <t>sortorder</t>
   </si>
   <si>
-    <t>da_codeLabel</t>
-  </si>
-  <si>
-    <t>en_codeLabel</t>
-  </si>
-  <si>
-    <t>kl_codeLabel</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -175,15 +153,6 @@
     <t>LINK_kl</t>
   </si>
   <si>
-    <t>fmtName</t>
-  </si>
-  <si>
-    <t>Fpath</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
     <t>Lars Pedersen, LARP@stat.gl</t>
   </si>
   <si>
@@ -443,13 +412,34 @@
   </si>
   <si>
     <t>AXIS-VERSION</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>da_long_name</t>
+  </si>
+  <si>
+    <t>en_long_name</t>
+  </si>
+  <si>
+    <t>kl_long_name</t>
+  </si>
+  <si>
+    <t>da_code_label</t>
+  </si>
+  <si>
+    <t>en_code_label</t>
+  </si>
+  <si>
+    <t>kl_code_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -464,6 +454,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -490,7 +486,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -498,6 +494,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,422 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="15" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="D15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="6" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,24 +848,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -1287,257 +873,257 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1545,7 +1131,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1553,34 +1139,34 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1593,52 +1179,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="D15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED0ABF-2083-4316-9F5E-92483D49B924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE77BD3-C867-4BAC-B521-BF28F553CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="0" windowWidth="23220" windowHeight="31800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="4" r:id="rId1"/>
+    <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE77BD3-C867-4BAC-B521-BF28F553CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175B867-5825-4B51-8E37-52B4CC216FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>kl_code_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very long note. It is longer than 256*2 characters to test what happens if a line is broken into 3 lines. Each line should only hold values up to 256 and then break line after a comma. When the line is so long that it is split into &gt;=3 lines, the second line starts with no keywords, but just list values. The last line will do the same but has to end with a semi-colon to show that the list of values has ended. With this final sentence, that had to be extended a bit, this line is now 534 characters which is long enough. </t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,7 +956,9 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175B867-5825-4B51-8E37-52B4CC216FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6DB4A-CCF1-479A-86A1-EE08EA168852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16995" windowHeight="31785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -518,9 +518,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -558,9 +558,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,26 +593,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,26 +628,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1188,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1258,7 +1224,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6DB4A-CCF1-479A-86A1-EE08EA168852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73916DE8-76A5-4095-87A2-A10DA3BDBD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16995" windowHeight="31785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -57,9 +57,6 @@
     <t/>
   </si>
   <si>
-    <t>2MD</t>
-  </si>
-  <si>
     <t>antal</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>inunngorfik</t>
   </si>
   <si>
-    <t>FIGURES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -285,15 +279,6 @@
     <t>20220211 09:00</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>www.stat.gl/bed202201/m1</t>
   </si>
   <si>
@@ -384,9 +369,6 @@
     <t>ANSI</t>
   </si>
   <si>
-    <t>h2</t>
-  </si>
-  <si>
     <t>SUBJECT-CODE</t>
   </si>
   <si>
@@ -436,6 +418,21 @@
   </si>
   <si>
     <t xml:space="preserve">This is a very long note. It is longer than 256*2 characters to test what happens if a line is broken into 3 lines. Each line should only hold values up to 256 and then break line after a comma. When the line is so long that it is split into &gt;=3 lines, the second line starts with no keywords, but just list values. The last line will do the same but has to end with a semi-colon to show that the list of values has ended. With this final sentence, that had to be extended a bit, this line is now 534 characters which is long enough. </t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>heading</t>
   </si>
 </sst>
 </file>
@@ -818,23 +815,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -842,259 +839,259 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1102,7 +1099,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1110,34 +1107,34 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1152,94 +1149,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1">
+    <row r="1" spans="1:16" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="B2" t="s">
-        <v>48</v>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1265,122 +1262,125 @@
       <c r="O2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
         <v>113</v>
       </c>
-      <c r="H3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1388,7 +1388,7 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
@@ -1397,9 +1397,12 @@
       <c r="O5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="D15" s="3"/>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,145 +1429,145 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73916DE8-76A5-4095-87A2-A10DA3BDBD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEEE755-95AA-4FD2-855E-120B06005C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="24210" windowHeight="21645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -396,27 +396,6 @@
     <t>AXIS-VERSION</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>da_long_name</t>
-  </si>
-  <si>
-    <t>en_long_name</t>
-  </si>
-  <si>
-    <t>kl_long_name</t>
-  </si>
-  <si>
-    <t>da_code_label</t>
-  </si>
-  <si>
-    <t>en_code_label</t>
-  </si>
-  <si>
-    <t>kl_code_label</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a very long note. It is longer than 256*2 characters to test what happens if a line is broken into 3 lines. Each line should only hold values up to 256 and then break line after a comma. When the line is so long that it is split into &gt;=3 lines, the second line starts with no keywords, but just list values. The last line will do the same but has to end with a semi-colon to show that the list of values has ended. With this final sentence, that had to be extended a bit, this line is now 534 characters which is long enough. </t>
   </si>
   <si>
@@ -433,6 +412,27 @@
   </si>
   <si>
     <t>heading</t>
+  </si>
+  <si>
+    <t>da_code-label</t>
+  </si>
+  <si>
+    <t>en_code-label</t>
+  </si>
+  <si>
+    <t>kl_code-label</t>
+  </si>
+  <si>
+    <t>variable-code</t>
+  </si>
+  <si>
+    <t>da_variable-label</t>
+  </si>
+  <si>
+    <t>en_variable-label</t>
+  </si>
+  <si>
+    <t>kl_variable-label</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,22 +1174,22 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -1438,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>88</v>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3A4FF-C02E-4C56-BDEF-13C8402EFF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC5825-EAAB-417D-A8EB-F72B8C8419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="17025" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40275" yWindow="0" windowWidth="17325" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>keyword</t>
   </si>
@@ -314,12 +314,6 @@
   </si>
   <si>
     <t>FIGURES</t>
-  </si>
-  <si>
-    <t>antal</t>
-  </si>
-  <si>
-    <t>amerlassusaat</t>
   </si>
   <si>
     <t>sortorder</t>
@@ -794,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1100,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,15 +1271,6 @@
       </c>
       <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1324,19 +1309,19 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,7 +1329,7 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1364,19 +1349,19 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1384,19 +1369,19 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
         <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,7 +1389,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1424,19 +1409,19 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
         <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,19 +1429,19 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC5825-EAAB-417D-A8EB-F72B8C8419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80620CF-376A-4D5C-96FF-DA41C9632BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40275" yWindow="0" windowWidth="17325" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41940" yWindow="12030" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Codelists" sheetId="4" r:id="rId4"/>
+    <sheet name="Cells" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80620CF-376A-4D5C-96FF-DA41C9632BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671ED95-22DE-4EEF-9B6E-695659CD8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41940" yWindow="12030" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="4500" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>variable-code</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>en_variable-label</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>Kalaallit Nunaata avataani</t>
+  </si>
+  <si>
+    <t>variable-type</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="da_variable-label"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="kl_variable-label"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="E5:F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,147 +1127,147 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
         <v>90</v>
       </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" t="s">
-        <v>91</v>
-      </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1286,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1309,139 +1309,139 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
         <v>112</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_BEXSTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671ED95-22DE-4EEF-9B6E-695659CD8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7593CF-B2B3-4C26-966F-FB516271D000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4500" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19005" yWindow="3960" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>tid</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>variable-type</t>
+  </si>
+  <si>
+    <t>timeval</t>
   </si>
 </sst>
 </file>
@@ -467,13 +467,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:P5" totalsRowShown="0">
-  <autoFilter ref="A1:P5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:Q5" totalsRowShown="0">
+  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
+    <tableColumn id="17" xr3:uid="{9EB96CC9-5828-4BA7-A547-867B6CDB29BC}" name="timeval"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="da_variable-label"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="kl_variable-label"/>
@@ -1092,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,19 +1105,20 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1127,46 +1129,49 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1176,26 +1181,26 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1205,35 +1210,32 @@
       <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>88</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>81</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
       </c>
       <c r="O3" t="s">
         <v>90</v>
@@ -1241,8 +1243,11 @@
       <c r="P3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1252,22 +1257,22 @@
       <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1309,19 +1314,19 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,7 +1334,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1349,19 +1354,19 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,19 +1374,19 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1409,19 +1414,19 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1429,19 +1434,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
